--- a/Теория вероятностей. Решение задач/4 Раздел Обобщение данных/4.1 Первичная обработка данных.xlsx
+++ b/Теория вероятностей. Решение задач/4 Раздел Обобщение данных/4.1 Первичная обработка данных.xlsx
@@ -8,14 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\4 Раздел Обобщение данных\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257CB75D-8A6A-4D10-A10B-847BD4EB1761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BEDD1B-0CC8-4B6D-9C78-97CF4EE2AE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1 Номер 1" sheetId="1" r:id="rId1"/>
     <sheet name="Задание 1 Номер 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Задание 1 Номер 5" sheetId="3" r:id="rId3"/>
+    <sheet name="Задание 1 Номер 6" sheetId="4" r:id="rId4"/>
+    <sheet name="Задание 2 Мат. статистика" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="Итого_детей_возраста_1_9_лет">#REF!</definedName>
+    <definedName name="Итого_детей_возраста_10_16_лет">#REF!</definedName>
+    <definedName name="ЛПР_от_InCamp">#REF!</definedName>
+    <definedName name="ЛПР_от_Прочие">#REF!</definedName>
+    <definedName name="ЛПР_от_Романова_Африкантова">#REF!</definedName>
+    <definedName name="ЛПР_от_Семёна">#REF!</definedName>
+    <definedName name="Число_1_ых_детей_у_ЛПР">#REF!</definedName>
+    <definedName name="Число_2_ых_детей_у_ЛПР">#REF!</definedName>
+    <definedName name="Число_3_их_детей_у_ЛПР">#REF!</definedName>
+    <definedName name="Число_4_ых_детей_у_ЛПР">#REF!</definedName>
+    <definedName name="Число_ЛПР">#REF!</definedName>
+    <definedName name="Число_ЛПР_с_Instagram">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="97">
   <si>
     <t>б) Запишите размер обуви каждого студента в вашей группе.</t>
   </si>
@@ -158,12 +175,213 @@
   <si>
     <t>В группах 2П2 и 2П3 успеваемость распределена менее равновмерно, чем в группе 2П1</t>
   </si>
+  <si>
+    <t>60 спортсменов участвуют в лыжных гонках. Время окончания записано и показано в таблице
+Заполните строку с кумулятивными частотами. Постройте кривую кумулятивных частот (кумуляты). 
+По графику найдите приблизительную медиану времени окончания гонки. О чем говорит медианное значение?</t>
+  </si>
+  <si>
+    <t>Время, ч</t>
+  </si>
+  <si>
+    <t>35, 36, 38, 37, 35, 36, 38, 36, 37, 35, 36, 36, 38, 36, 35, 38, 37, 38, 36, 38</t>
+  </si>
+  <si>
+    <t>Когда много пустых интервалов следует перегруппировать данные</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Кумулята - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>график накопленных частот</t>
+    </r>
+  </si>
+  <si>
+    <t>[0;0.5)</t>
+  </si>
+  <si>
+    <t>[0.5;1)</t>
+  </si>
+  <si>
+    <t>[1; 1.5)</t>
+  </si>
+  <si>
+    <t>[1.5;2)</t>
+  </si>
+  <si>
+    <t>[2; 2.5)</t>
+  </si>
+  <si>
+    <t>[2.5;3)</t>
+  </si>
+  <si>
+    <t>(3;3.5]</t>
+  </si>
+  <si>
+    <t>Кумулятивная частота в конце ряда частот = кол. эл. В выборке</t>
+  </si>
+  <si>
+    <t>Постройте кривую кумулятивных частот (кумуляты).</t>
+  </si>
+  <si>
+    <t>Заполнение строки с кумулятивными частотами</t>
+  </si>
+  <si>
+    <t>ПО оси х - время в часах</t>
+  </si>
+  <si>
+    <t>По оси y - значения частот кумуляты</t>
+  </si>
+  <si>
+    <t>Средние значения диапазонов</t>
+  </si>
+  <si>
+    <t>Кумулятивная</t>
+  </si>
+  <si>
+    <t>Медиана</t>
+  </si>
+  <si>
+    <t>Группы прошли тест при подготовке к экзамену. Известны их предварительные оценки:
+2П1: 10, 17, 24, 25, 46, 51, 64, 65, 80, 82, 84, 90, 90, 91, 92, 93, 93, 96, 100
+2П2: 5, 7, 8, 12, 16, 16, 25, 45, 57, 59, 61, 64, 80, 83, 91
+2П3: 2, 4, 8, 10, 22, 27, 27, 30, 46, 59, 62, 64, 66, 71, 73, 75, 76, 85, 93 
+а) Используя интервалы (0, 20]; (20, 40] и т.д. постройте интервальный ряд и кумулятивные частоты для каждой группы
+б) Постройте кумуляты для каждой группы
+в) Как используя график, найдите медианный балл для каждой группы?</t>
+  </si>
+  <si>
+    <t>Оценки группы 2П1</t>
+  </si>
+  <si>
+    <t>Группа 2П1</t>
+  </si>
+  <si>
+    <t>(0, 20]</t>
+  </si>
+  <si>
+    <t>(20, 40]</t>
+  </si>
+  <si>
+    <t>(40, 60]</t>
+  </si>
+  <si>
+    <t>(60, 80]</t>
+  </si>
+  <si>
+    <t>(80, 100]</t>
+  </si>
+  <si>
+    <t>Медианный балл будет искаться для каждой группы также, как я это сделал в Номере 5</t>
+  </si>
+  <si>
+    <t>Нет данных</t>
+  </si>
+  <si>
+    <t>Возраст 3-го ребёнка</t>
+  </si>
+  <si>
+    <t>Возраст 2-го ребёнка</t>
+  </si>
+  <si>
+    <t>(15;20]</t>
+  </si>
+  <si>
+    <t>(10;15]</t>
+  </si>
+  <si>
+    <t>(5;10]</t>
+  </si>
+  <si>
+    <t>(1;5]</t>
+  </si>
+  <si>
+    <t>Возраст</t>
+  </si>
+  <si>
+    <t>4) Так как разброс возраста большой составляю интервальный ряд</t>
+  </si>
+  <si>
+    <t>3) Настроил фильтры</t>
+  </si>
+  <si>
+    <t>2) Каждый столбец привратил в таблицу</t>
+  </si>
+  <si>
+    <t>Возраст детей на этот лист</t>
+  </si>
+  <si>
+    <t>1) Скопировал столбцы данных</t>
+  </si>
+  <si>
+    <t>Возраст 1-го ребёнка</t>
+  </si>
+  <si>
+    <t>Анализирую данные о возрасте детей ЛПР, что взял из моей модели данных.</t>
+  </si>
+  <si>
+    <t>Средние значения диапозонов</t>
+  </si>
+  <si>
+    <t>(20;25]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>Медианное значение = 30. Оно пересекает кумуляту ~ в 1.75 часа.</t>
+  </si>
+  <si>
+    <t>Это говорит о том, что половина всех спортсменов финиширует</t>
+  </si>
+  <si>
+    <t>примерно за 1.75 часа</t>
+  </si>
+  <si>
+    <t>медиана кумуляты</t>
+  </si>
+  <si>
+    <t>Средние значения диапозонов - по оси х</t>
+  </si>
+  <si>
+    <t>Значения медианы по оси у</t>
+  </si>
+  <si>
+    <t>График кумуляты - по соответствующим координатам точек х у</t>
+  </si>
+  <si>
+    <t>х - диапозоны возрастов</t>
+  </si>
+  <si>
+    <t>у - частоты возрастов</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +396,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +452,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -286,11 +552,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -307,11 +607,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{CC983B2D-0AF2-4464-B162-6744A7542BFA}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -354,13 +771,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -370,6 +780,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -429,13 +846,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -445,6 +855,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -504,13 +921,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -520,6 +930,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1970,16 +2387,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ru-RU" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -2273,6 +2687,1698 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="605312671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1"/>
+              <a:t>Кумулята финишировавших</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задание 1 Номер 5'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кумулятивная</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Задание 1 Номер 5'!$D$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>[0;0.5)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[0.5;1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[1; 1.5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[1.5;2)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[2; 2.5)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[2.5;3)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(3;3.5]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задание 1 Номер 5'!$D$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF84-4B1D-9D5E-5FB62003FDEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задание 1 Номер 5'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Медиана</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Задание 1 Номер 5'!$D$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>[0;0.5)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[0.5;1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[1; 1.5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[1.5;2)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[2; 2.5)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[2.5;3)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(3;3.5]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задание 1 Номер 5'!$D$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FF84-4B1D-9D5E-5FB62003FDEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="221608352"/>
+        <c:axId val="221618336"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Задание 1 Номер 5'!$C$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Частота</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Задание 1 Номер 5'!$D$3:$J$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>[0;0.5)</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>[0.5;1)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>[1; 1.5)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>[1.5;2)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>[2; 2.5)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>[2.5;3)</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>(3;3.5]</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Задание 1 Номер 5'!$D$4:$J$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-FF84-4B1D-9D5E-5FB62003FDEA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="221608352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t> завершения гонки</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221618336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="221618336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Число финишировавших</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221608352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1"/>
+              <a:t>Кумулята</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1" baseline="0"/>
+              <a:t> возраста детей</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задание 2 Мат. статистика'!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кумулятивная</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Задание 2 Мат. статистика'!$F$8:$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задание 2 Мат. статистика'!$F$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48AF-42A1-976A-C20CBF293A5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="46872400"/>
+        <c:axId val="46890288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="46872400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Ср.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t> значения диапозонов возраста</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46890288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46890288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Число детей</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46872400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1"/>
+              <a:t>Гистограмма частот возрастов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задание 2 Мат. статистика'!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Частота</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Задание 2 Мат. статистика'!$F$9:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>(1;5]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(5;10]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(10;15]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(15;20]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(20;25]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задание 2 Мат. статистика'!$F$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E5F-4EA4-BF1B-6B76C733A246}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2069517216"/>
+        <c:axId val="2069500992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2069517216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Диапозоны возрастов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2069500992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2069500992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Частоты возрастов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2069517216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2521,6 +4627,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4534,6 +6760,1541 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5270,34 +9031,596 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9232AD66-CF55-4633-88CA-77631DA9643B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2293191</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2301111</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>72480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Рукописный ввод 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7381E7CC-FC40-4A14-B794-1F3F1D4BE19A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7509960" y="4769640"/>
+            <a:ext cx="7920" cy="636840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Рукописный ввод 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7381E7CC-FC40-4A14-B794-1F3F1D4BE19A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7500960" y="4761000"/>
+              <a:ext cx="25560" cy="654480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2226591</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2293191</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>46020</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Рукописный ввод 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11741A8-2628-4932-AA8F-D71118407DA3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7443360" y="4734000"/>
+            <a:ext cx="66600" cy="74520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Рукописный ввод 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11741A8-2628-4932-AA8F-D71118407DA3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7434720" y="4725000"/>
+              <a:ext cx="84240" cy="92160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2373831</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2995551</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>135060</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Рукописный ввод 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82262303-B328-4C27-9959-E201FAA90F9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7590600" y="5311020"/>
+            <a:ext cx="621720" cy="158040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Рукописный ввод 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82262303-B328-4C27-9959-E201FAA90F9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7581600" y="5302020"/>
+              <a:ext cx="639360" cy="175680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>289454</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6905262" cy="4583206"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ДЗ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E40F9F53-AAE5-4816-8819-64C45726184B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="50000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10251483" y="0"/>
+          <a:ext cx="6905262" cy="4583206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>496957</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0FDDE11-74F2-493F-8B57-F18FA6D214E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Диаграмма 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F552701-86EF-4EE3-97B6-822B0EDDE35B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-31T06:26:43.373"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'0'978,"11"-878,-7-72,2 47,-7 494,1-551</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-31T06:26:49.459"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">185 201,'-9'-8,"7"7,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,0 1,1 0,-1-1,1 1,0-1,-1-1,1 2,0 1,0-1,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,-1 0,1-1,0 1,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,0 0,-2 0,-17 3,17-2,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 0,-1 0,1 0,0 1,-1-1,1-1,-1 1,1 0,0 0,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 0,0 0,0 0,0 1,0-1,-2-2,2 1,0 0,0 1,0-1,1 0,-1 1,0-1,1 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 1,0-1,2-1,-2 2,0-1,0 1,0 0,0 0,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,0 1,0-1,0 1,1 0,-2-1,1 1,0 0,0 0,0-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,0 3,0-3,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,-1 1,1-1,0 1,-1-1,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,0 0,0 0,-2 0,1 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 0,1-1,-1 1,1 0,0-1,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1-1,0-2,1-7,-1 1,1-1,1 0,0 1,1-1,3-22,-3 32,-1 0,1 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 1,-1-1,1 0,-1 1,1-1,2-1,-2 3,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 1,1 0,0-1,0 1,0 0,-1 0,1 0,0 1,-1-1,3 2,1 2,0 0,-1 0,0 0,1 1,-2-1,1 1,-1 0,0 0,0 1,0-1,-1 1,0-1,-1 1,1-1,-1 1,0 0,-1 0,0 0,0 0,-2 12,0-15,-1-1,1 1,-1-1,0 0,0 0,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,0-1,0 1,0-1,0 1,0-1,0-1,-8 2,9-1,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,0 0,1-1,-1 1,0-1,0 1,1-1,-1 0,1 0,0 0,-1 0,-2-4,4 2,0 0,0 0,0 0,1 1,-1-1,1 0,0 0,0 0,0 0,1 0,-1 0,1 0,0 1,0-1,0 0,1 0,0 1,-1-1,1 1,0 0,0-1,1 1,-1 0,1 0,0 0,-1 1,1-1,0 1,6-4,-6 4,-1 0,1 0,0 0,-1 1,1-1,0 1,0 0,0-1,0 2,0-1,0 0,1 0,-1 1,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0 0,0-1,-1 1,1 0,-1 0,1 0,-1 1,3 3,-3-4,-1 0,0 0,0-1,1 1,-1 0,-1 0,1 1,0-1,0 0,-1 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,-4 1,3 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,0-1,-2-5,3 3,0 1,0 0,0-1,1 1,-1-1,1 1,0-1,0 1,1 0,-1-1,1 1,2-7,-3 10,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,1 1,-1 0,0 0,1 0,-1 0,1-1,-1 2,0-1,1 0,-1 0,0 0,1 1,-1-1,0 1,1-1,-1 1,0-1,0 1,0 0,2 0,10 7</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-31T06:30:11.034"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 145,'7'-1,"0"-1,0 0,-1 0,1-1,-1 0,1 0,-1 0,0-1,8-6,12-6,-22 14,0 0,0 0,0 0,0 0,0 0,1 1,-1 0,0 0,7-1,-10 2,-1 1,1-1,0 0,0 0,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 2,4 28,-8 199,3-211</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="515.64">285 308,'-4'7,"0"5,-4 5,0 3,-2 1,0 1,-1-4,1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2002.02">529 125,'100'-2,"108"4,-207-2,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 0,-1 1,1-1,-1 0,-1 2,-4 10,-2 1,0-1,-16 21,8-13,11-13,-15 25,-39 46,48-67</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2580.13">692 247,'7'0,"9"0,5 0,3 0,1 0,-1 0,0 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3598.23">1038 44,'-1'65,"2"74,0-136,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,1-1,0 1,-1-1,1 1,0-1,1 0,-1 1,0-1,1 0,2 2,-2-2,0 0,0 0,-1 0,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,1 4,-2-5,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,-1 0,1 1,0-1,-1 1,0-1,1 0,-1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,-1-1,-2 1,-7 2,-1 0,0-1,1-1,-14 1,0 0,-9 6,25-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4238.81">1059 23,'7'0,"5"0,5 0,3 0,0 0,2 0,0 0,-1 0,0 0,0 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5660.61">1466 125,'0'-2,"0"0,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,4-3,31-20,-19 13,8-12,-21 19,0-1,0 1,0 0,0 1,1-1,0 1,0 0,9-5,-13 8,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,-1 0,1 1,0 0,0-1,-1 1,1-1,0 1,-1 0,1-1,0 1,-1 0,1 0,-1 0,0-1,1 1,0 2,12 28,-11-25,1 1,0 0,0 0,1-1,0 1,0-1,11 11,-14-16,0 1,-1-1,1 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1-1,1 1,-1 0,1 0,2-2,-12 10,-1-1,2 1,-1 0,1 1,0 0,1 0,0 0,-5 12,-2 5,-18 53,27-64</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE535CA9-35A8-4A32-BB31-127CF86D5C77}" name="Таблица_2П1" displayName="Таблица_2П1" ref="D3:E13" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE535CA9-35A8-4A32-BB31-127CF86D5C77}" name="Таблица_2П1" displayName="Таблица_2П1" ref="D3:E13" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="D3:E13" xr:uid="{EE535CA9-35A8-4A32-BB31-127CF86D5C77}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{83396593-70D9-403E-9D2F-8918C5DFA4C9}" name="Баллы" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{060A0C85-2477-426F-8CAA-7C0D78E88E5D}" name="Частоты" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{83396593-70D9-403E-9D2F-8918C5DFA4C9}" name="Баллы" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{060A0C85-2477-426F-8CAA-7C0D78E88E5D}" name="Частоты" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85D51B20-F191-465E-B997-F9644EFF96BF}" name="Таблица_2П2" displayName="Таблица_2П2" ref="J3:K13" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85D51B20-F191-465E-B997-F9644EFF96BF}" name="Таблица_2П2" displayName="Таблица_2П2" ref="J3:K13" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="J3:K13" xr:uid="{85D51B20-F191-465E-B997-F9644EFF96BF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8E81AEFA-0355-4BF0-9F92-0D3B91E63F82}" name="Баллы" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{479C2D63-2F8A-4FD0-BA1D-B54EE840F1CB}" name="Частоты" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{8E81AEFA-0355-4BF0-9F92-0D3B91E63F82}" name="Баллы" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{479C2D63-2F8A-4FD0-BA1D-B54EE840F1CB}" name="Частоты" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{17AA3812-ECF5-4D16-8448-8B4C7DF8212A}" name="Таблица_2П3" displayName="Таблица_2П3" ref="P3:Q13" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{17AA3812-ECF5-4D16-8448-8B4C7DF8212A}" name="Таблица_2П3" displayName="Таблица_2П3" ref="P3:Q13" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="P3:Q13" xr:uid="{17AA3812-ECF5-4D16-8448-8B4C7DF8212A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CCD2E472-7257-48C3-B270-1FB3437C9408}" name="Баллы" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{56EE5E64-4547-42B0-B105-0EF34F3013C6}" name="Частоты" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CCD2E472-7257-48C3-B270-1FB3437C9408}" name="Баллы" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{56EE5E64-4547-42B0-B105-0EF34F3013C6}" name="Частоты" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{763825FF-BEB1-4C39-B5A0-90250499D052}" name="Таблица4" displayName="Таблица4" ref="C3:J6" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="C3:J6" xr:uid="{763825FF-BEB1-4C39-B5A0-90250499D052}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{20F7A182-EF88-4984-8980-080030E43F8D}" name="Время, ч"/>
+    <tableColumn id="2" xr3:uid="{CC4A9359-E850-442F-BE7A-E7E83E8E90D0}" name="[0;0.5)"/>
+    <tableColumn id="3" xr3:uid="{DECFAEDF-A04E-4A29-B946-A1334D4879EE}" name="[0.5;1)"/>
+    <tableColumn id="4" xr3:uid="{C0297CEF-38D2-45D4-87C4-12AFCD6DB98E}" name="[1; 1.5)"/>
+    <tableColumn id="5" xr3:uid="{0895D667-18A1-41B2-8FEF-B25E8279BBA6}" name="[1.5;2)"/>
+    <tableColumn id="6" xr3:uid="{B284F7F5-4210-4DBE-88A1-74B0C54B7616}" name="[2; 2.5)"/>
+    <tableColumn id="7" xr3:uid="{95EA6CD8-3136-46DB-9EFA-C2D5FA89231D}" name="[2.5;3)"/>
+    <tableColumn id="8" xr3:uid="{A6BEE8E4-6AA6-4B0D-B94D-0BC1B1819432}" name="(3;3.5]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A45C4F04-57E3-453C-A931-0ADFB1656196}" name="Таблица5" displayName="Таблица5" ref="A1:A110" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:A110" xr:uid="{F7355CAF-D7DF-4047-B615-B5852A22CC89}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="10"/>
+        <filter val="11"/>
+        <filter val="12"/>
+        <filter val="13"/>
+        <filter val="14"/>
+        <filter val="19"/>
+        <filter val="20"/>
+        <filter val="21"/>
+        <filter val="23"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A92">
+    <sortCondition ref="A1:A110"/>
+  </sortState>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{0D0D492C-E584-4B25-B24C-D682F0A9367C}" name="Возраст 1-го ребёнка"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4023CCC-DE6C-414B-8487-673153831BBC}" name="Таблица11" displayName="Таблица11" ref="A112:A203" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A112:A203" xr:uid="{0C3BE30E-E423-4A9B-922E-7C0D88772F5C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="11"/>
+        <filter val="14"/>
+        <filter val="15"/>
+        <filter val="2"/>
+        <filter val="27"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A115:A197">
+    <sortCondition ref="A112:A203"/>
+  </sortState>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7649968C-C5D2-4F1D-AEE0-351B26F3939E}" name="Возраст 2-го ребёнка"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1F075B47-0C7B-4B82-9D01-86B0075BB6B1}" name="Таблица12" displayName="Таблица12" ref="A205:A296" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A205:A296" xr:uid="{5C34312A-418B-4C28-A139-43BE01BAC97B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="42"/>
+        <filter val="7"/>
+        <filter val="8"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A223:A284">
+    <sortCondition ref="A205:A296"/>
+  </sortState>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C81CD266-9F46-4D1A-8475-A0FEA9FB1909}" name="Возраст 3-го ребёнка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5566,24 +9889,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="69" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="78.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -5603,7 +9926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5623,32 +9946,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -5668,7 +9994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
@@ -5693,24 +10019,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472C3D73-F8C8-4706-84F1-B0F94AE36294}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="69" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="225">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
@@ -5721,7 +10047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -5744,7 +10070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
@@ -5763,8 +10089,11 @@
       <c r="Q4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2"/>
       <c r="D5" s="6" t="s">
         <v>19</v>
@@ -5785,7 +10114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="30">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -5808,7 +10137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
@@ -5828,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -5851,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
@@ -5871,7 +10200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="D10" s="6" t="s">
         <v>24</v>
       </c>
@@ -5891,7 +10220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
@@ -5911,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="D12" s="6" t="s">
         <v>26</v>
       </c>
@@ -5931,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
@@ -5951,7 +10280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -5974,24 +10303,2166 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8">
       <c r="H30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8">
       <c r="C32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3">
       <c r="C33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58178EF-C08F-4C58-9154-04ED09ED0D9F}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="69.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="120">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>0.25</v>
+      </c>
+      <c r="E2">
+        <v>0.75</v>
+      </c>
+      <c r="F2">
+        <v>1.25</v>
+      </c>
+      <c r="G2">
+        <v>1.75</v>
+      </c>
+      <c r="H2">
+        <v>2.25</v>
+      </c>
+      <c r="I2">
+        <v>2.75</v>
+      </c>
+      <c r="J2">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="C3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13">
+        <v>34</v>
+      </c>
+      <c r="H4" s="13">
+        <v>16</v>
+      </c>
+      <c r="I4" s="13">
+        <v>3</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="15">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" ref="E5:J5" si="0">D5+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4">
+        <v>30</v>
+      </c>
+      <c r="H6" s="4">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8">
+        <f>J5/2</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C68400B-769D-4B69-A820-D71115114F3E}">
+  <dimension ref="A1:T10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="69.140625" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="285">
+      <c r="A1" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="20"/>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="20"/>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>51</v>
+      </c>
+      <c r="H3">
+        <v>64</v>
+      </c>
+      <c r="I3">
+        <v>65</v>
+      </c>
+      <c r="J3">
+        <v>80</v>
+      </c>
+      <c r="K3">
+        <v>82</v>
+      </c>
+      <c r="L3">
+        <v>84</v>
+      </c>
+      <c r="M3">
+        <v>90</v>
+      </c>
+      <c r="N3">
+        <v>90</v>
+      </c>
+      <c r="O3">
+        <v>91</v>
+      </c>
+      <c r="P3">
+        <v>92</v>
+      </c>
+      <c r="Q3">
+        <v>93</v>
+      </c>
+      <c r="R3">
+        <v>93</v>
+      </c>
+      <c r="S3">
+        <v>96</v>
+      </c>
+      <c r="T3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="20"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="20"/>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="20"/>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="20"/>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <f>COUNTIF($B$3:$Q$3,"&lt;=20")</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <f>COUNTIF($B$3:$Q$3,"&lt;=40") - C7</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <f>COUNTIF($B$3:$Q$3,"&lt;=60") -D7 - C7</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <f>COUNTIF($B$3:$Q$3,"&lt;=80") - E7 -D7 - C7</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <f>COUNTIF($B$3:$Q$3,"&lt;=100") - F7 -E7 - D7 - C7</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C7</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C8+D7</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <f>D8+E7</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="4">
+        <f>E8+F7</f>
+        <v>9</v>
+      </c>
+      <c r="G8" s="4">
+        <f>F8+G7</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE50D3-57D2-4B49-AF09-961EE50BFC93}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:J296"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="22" customWidth="1"/>
+    <col min="2" max="3" width="20.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="22"/>
+    <col min="5" max="5" width="31.5703125" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="22">
+        <v>5</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="22">
+        <v>6</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="22">
+        <v>6</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="22">
+        <v>6</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="22">
+        <v>7</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="24">
+        <f>COUNTIF($A:$A,"&lt;=5")</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="24">
+        <f>COUNTIF($A:$A,"&lt;=10") - F10</f>
+        <v>50</v>
+      </c>
+      <c r="H10" s="24">
+        <f>COUNTIF($A:$A,"&lt;=15") - G10 - F10</f>
+        <v>30</v>
+      </c>
+      <c r="I10" s="24">
+        <f>COUNTIF($A:$A,"&lt;=20") - H10 - G10 - F10</f>
+        <v>2</v>
+      </c>
+      <c r="J10" s="24">
+        <f>COUNTIF($A:$A,"&lt;=25") - I10 - H10 - G10 - F10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1">
+      <c r="A11" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="22">
+        <v>7</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="27">
+        <f>F10</f>
+        <v>10</v>
+      </c>
+      <c r="G12" s="27">
+        <f>G10+F12</f>
+        <v>60</v>
+      </c>
+      <c r="H12" s="27">
+        <f>H10+G12</f>
+        <v>90</v>
+      </c>
+      <c r="I12" s="27">
+        <f>I10+H12</f>
+        <v>92</v>
+      </c>
+      <c r="J12" s="27">
+        <f>J10+I12</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="22">
+        <v>7</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="29">
+        <f>$J$14</f>
+        <v>47</v>
+      </c>
+      <c r="G13" s="29">
+        <f t="shared" ref="G13:J13" si="0">$J$14</f>
+        <v>47</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="I13" s="29">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="J13" s="29">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="22">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="22">
+        <f>J12/2</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="22">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1">
+      <c r="A16" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1">
+      <c r="A17" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="22">
+        <v>8</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="22">
+        <v>8</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1">
+      <c r="A26" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1">
+      <c r="A28" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1">
+      <c r="A29" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1">
+      <c r="A30" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="22">
+        <v>10</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="22">
+        <v>10</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" hidden="1">
+      <c r="A52" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" hidden="1">
+      <c r="A56" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" hidden="1">
+      <c r="A60" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" hidden="1">
+      <c r="A61" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" hidden="1">
+      <c r="A62" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" hidden="1">
+      <c r="A63" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" hidden="1">
+      <c r="A65" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" hidden="1">
+      <c r="A66" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" hidden="1">
+      <c r="A67" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" hidden="1">
+      <c r="A69" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" hidden="1">
+      <c r="A70" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" hidden="1">
+      <c r="A71" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" hidden="1">
+      <c r="A72" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1">
+      <c r="A88" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1">
+      <c r="A89" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1">
+      <c r="A90" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1">
+      <c r="A91" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1">
+      <c r="A93" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1">
+      <c r="A94" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1">
+      <c r="A95" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1">
+      <c r="A96" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1">
+      <c r="A97" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1">
+      <c r="A98" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1">
+      <c r="A99" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1">
+      <c r="A100" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1">
+      <c r="A101" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1">
+      <c r="A102" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1">
+      <c r="A103" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1">
+      <c r="A104" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1">
+      <c r="A105" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1">
+      <c r="A106" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1">
+      <c r="A107" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1">
+      <c r="A108" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1">
+      <c r="A109" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1">
+      <c r="A110" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" hidden="1">
+      <c r="A113" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" hidden="1">
+      <c r="A114" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" hidden="1">
+      <c r="A115" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" hidden="1">
+      <c r="A116" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" hidden="1">
+      <c r="A117" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" hidden="1">
+      <c r="A119" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" hidden="1">
+      <c r="A120" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" hidden="1">
+      <c r="A122" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" hidden="1">
+      <c r="A123" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" hidden="1">
+      <c r="A124" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" hidden="1">
+      <c r="A125" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" hidden="1">
+      <c r="A126" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" hidden="1">
+      <c r="A127" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" hidden="1">
+      <c r="A128" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" hidden="1">
+      <c r="A130" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" hidden="1">
+      <c r="A131" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" hidden="1">
+      <c r="A134" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" hidden="1">
+      <c r="A135" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" hidden="1">
+      <c r="A137" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" hidden="1">
+      <c r="A138" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" hidden="1">
+      <c r="A139" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" hidden="1">
+      <c r="A140" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" hidden="1">
+      <c r="A141" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" hidden="1">
+      <c r="A142" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" hidden="1">
+      <c r="A144" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" hidden="1">
+      <c r="A147" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" hidden="1">
+      <c r="A148" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" hidden="1">
+      <c r="A149" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" hidden="1">
+      <c r="A151" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" hidden="1">
+      <c r="A153" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" hidden="1">
+      <c r="A156" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" hidden="1">
+      <c r="A157" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" hidden="1">
+      <c r="A160" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" hidden="1">
+      <c r="A161" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" hidden="1">
+      <c r="A162" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" hidden="1">
+      <c r="A164" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" hidden="1">
+      <c r="A165" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" hidden="1">
+      <c r="A166" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" hidden="1">
+      <c r="A167" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" hidden="1">
+      <c r="A170" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" hidden="1">
+      <c r="A171" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" hidden="1">
+      <c r="A172" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" hidden="1">
+      <c r="A173" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" hidden="1">
+      <c r="A174" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" hidden="1">
+      <c r="A175" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" hidden="1">
+      <c r="A176" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" hidden="1">
+      <c r="A177" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" hidden="1">
+      <c r="A178" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" hidden="1">
+      <c r="A179" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" hidden="1">
+      <c r="A180" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" hidden="1">
+      <c r="A181" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" hidden="1">
+      <c r="A182" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" hidden="1">
+      <c r="A183" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" hidden="1">
+      <c r="A185" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" hidden="1">
+      <c r="A186" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" hidden="1">
+      <c r="A187" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" hidden="1">
+      <c r="A188" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" hidden="1">
+      <c r="A189" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" hidden="1">
+      <c r="A190" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" hidden="1">
+      <c r="A194" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" hidden="1">
+      <c r="A195" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" hidden="1">
+      <c r="A198" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" hidden="1">
+      <c r="A199" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" hidden="1">
+      <c r="A200" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" hidden="1">
+      <c r="A201" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" hidden="1">
+      <c r="A202" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" hidden="1">
+      <c r="A203" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" hidden="1">
+      <c r="A206" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" hidden="1">
+      <c r="A207" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" hidden="1">
+      <c r="A208" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" hidden="1">
+      <c r="A209" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" hidden="1">
+      <c r="A210" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" hidden="1">
+      <c r="A211" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" hidden="1">
+      <c r="A212" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" hidden="1">
+      <c r="A213" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" hidden="1">
+      <c r="A214" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" hidden="1">
+      <c r="A215" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" hidden="1">
+      <c r="A216" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" hidden="1">
+      <c r="A217" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" hidden="1">
+      <c r="A218" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" hidden="1">
+      <c r="A219" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" hidden="1">
+      <c r="A220" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" hidden="1">
+      <c r="A221" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" hidden="1">
+      <c r="A222" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" hidden="1">
+      <c r="A224" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" hidden="1">
+      <c r="A225" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" hidden="1">
+      <c r="A226" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" hidden="1">
+      <c r="A227" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" hidden="1">
+      <c r="A228" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" hidden="1">
+      <c r="A229" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" hidden="1">
+      <c r="A230" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" hidden="1">
+      <c r="A231" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" hidden="1">
+      <c r="A232" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" hidden="1">
+      <c r="A233" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" hidden="1">
+      <c r="A234" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" hidden="1">
+      <c r="A235" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" hidden="1">
+      <c r="A236" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" hidden="1">
+      <c r="A237" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" hidden="1">
+      <c r="A238" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" hidden="1">
+      <c r="A239" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" hidden="1">
+      <c r="A240" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" hidden="1">
+      <c r="A241" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" hidden="1">
+      <c r="A242" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" hidden="1">
+      <c r="A243" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" hidden="1">
+      <c r="A244" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" hidden="1">
+      <c r="A245" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" hidden="1">
+      <c r="A246" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" hidden="1">
+      <c r="A247" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" hidden="1">
+      <c r="A248" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" hidden="1">
+      <c r="A249" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" hidden="1">
+      <c r="A250" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" hidden="1">
+      <c r="A251" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" hidden="1">
+      <c r="A252" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" hidden="1">
+      <c r="A253" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" hidden="1">
+      <c r="A254" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" hidden="1">
+      <c r="A255" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" hidden="1">
+      <c r="A256" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" hidden="1">
+      <c r="A257" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" hidden="1">
+      <c r="A258" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" hidden="1">
+      <c r="A259" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" hidden="1">
+      <c r="A260" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" hidden="1">
+      <c r="A261" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" hidden="1">
+      <c r="A262" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" hidden="1">
+      <c r="A263" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" hidden="1">
+      <c r="A264" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" hidden="1">
+      <c r="A265" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" hidden="1">
+      <c r="A266" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" hidden="1">
+      <c r="A267" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" hidden="1">
+      <c r="A268" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" hidden="1">
+      <c r="A270" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" hidden="1">
+      <c r="A271" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" hidden="1">
+      <c r="A272" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" hidden="1">
+      <c r="A273" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" hidden="1">
+      <c r="A274" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" hidden="1">
+      <c r="A276" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" hidden="1">
+      <c r="A277" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" hidden="1">
+      <c r="A279" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" hidden="1">
+      <c r="A280" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" hidden="1">
+      <c r="A281" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" hidden="1">
+      <c r="A282" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" hidden="1">
+      <c r="A283" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" hidden="1">
+      <c r="A284" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" hidden="1">
+      <c r="A285" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" hidden="1">
+      <c r="A286" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" hidden="1">
+      <c r="A287" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" hidden="1">
+      <c r="A288" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" hidden="1">
+      <c r="A289" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" hidden="1">
+      <c r="A290" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" hidden="1">
+      <c r="A291" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" hidden="1">
+      <c r="A292" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" hidden="1">
+      <c r="A293" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" hidden="1">
+      <c r="A294" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" hidden="1">
+      <c r="A295" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" hidden="1">
+      <c r="A296" s="22" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
